--- a/fuentes/contenidos/grado09/guion03/Escaleta_CN_09_03_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion03/Escaleta_CN_09_03_CO.xlsx
@@ -16,7 +16,7 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$32</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
@@ -650,9 +650,6 @@
     <t>Actividad para comparar y diferenciar las propuestas del fijismo y el catastrofismo</t>
   </si>
   <si>
-    <t>Actividad para compararlos planteamientos de Darwin y de Lamarck</t>
-  </si>
-  <si>
     <t>Interactivo que permite reconocer y analizar las pruebas que apoyan la teoría evolutiva</t>
   </si>
   <si>
@@ -783,6 +780,9 @@
   </si>
   <si>
     <t>Competencias: comprobación de la teoría de la selección natural</t>
+  </si>
+  <si>
+    <t>Actividad para comparar los planteamientos de Darwin y de Lamarck</t>
   </si>
 </sst>
 </file>
@@ -1381,9 +1381,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U297"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,16 +1547,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="T3" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="U3" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1601,7 +1601,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R4" s="20" t="s">
         <v>131</v>
@@ -1610,10 +1610,10 @@
         <v>150</v>
       </c>
       <c r="T4" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="U4" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="U4" s="19" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R5" s="11" t="s">
         <v>131</v>
@@ -1667,10 +1667,10 @@
         <v>150</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1728,7 +1728,7 @@
         <v>127</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U6" s="10" t="s">
         <v>129</v>
@@ -1842,16 +1842,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="S8" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="T8" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>19</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R9" s="11" t="s">
         <v>131</v>
@@ -1907,10 +1907,10 @@
         <v>150</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1964,16 +1964,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="T10" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
         <v>19</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>131</v>
@@ -2032,7 +2032,7 @@
         <v>155</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2079,7 +2079,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>131</v>
@@ -2088,10 +2088,10 @@
         <v>150</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2143,16 +2143,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="S13" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="T13" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2210,7 +2210,7 @@
         <v>127</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>129</v>
@@ -2271,7 +2271,7 @@
         <v>127</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>129</v>
@@ -2302,10 +2302,10 @@
         <v>19</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>5</v>
@@ -2324,16 +2324,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="S16" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="S16" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="T16" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2361,7 +2361,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2389,7 +2389,7 @@
         <v>127</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>129</v>
@@ -2422,7 +2422,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2444,16 +2444,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="T18" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2485,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2546,7 +2546,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2574,7 +2574,7 @@
         <v>127</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>129</v>
@@ -2607,7 +2607,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2635,7 +2635,7 @@
         <v>127</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>129</v>
@@ -2666,7 +2666,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2688,16 +2688,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="S22" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="S22" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="T22" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -2725,7 +2725,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2753,7 +2753,7 @@
         <v>127</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>129</v>
@@ -2784,7 +2784,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2812,7 +2812,7 @@
         <v>127</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U24" s="10" t="s">
         <v>129</v>
@@ -2845,7 +2845,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
@@ -2860,7 +2860,7 @@
         <v>20</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R25" s="11" t="s">
         <v>131</v>
@@ -2872,7 +2872,7 @@
         <v>182</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
         <v>19</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -2924,16 +2924,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="S26" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="S26" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="T26" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -2989,7 +2989,7 @@
         <v>127</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U27" s="10" t="s">
         <v>129</v>
@@ -3020,7 +3020,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -3037,7 +3037,7 @@
         <v>19</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R28" s="11" t="s">
         <v>131</v>
@@ -3046,10 +3046,10 @@
         <v>150</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
@@ -3094,7 +3094,7 @@
         <v>19</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R29" s="11" t="s">
         <v>131</v>
@@ -3106,7 +3106,7 @@
         <v>193</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4803,7 +4803,7 @@
     <row r="296" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="297" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
+  <autoFilter ref="A1:U32">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">

--- a/fuentes/contenidos/grado09/guion03/Escaleta_CN_09_03_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion03/Escaleta_CN_09_03_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="252">
   <si>
     <t>Asignatura</t>
   </si>
@@ -551,9 +551,6 @@
     <t>Refuerza tu aprendizaje: Las pruebas de la evolución biológica</t>
   </si>
   <si>
-    <t>La teoría sintética de la evolución o neodarwinismo</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: La teoría sintética de la evolución</t>
   </si>
   <si>
@@ -569,9 +566,6 @@
     <t>Se explica como se da la especiación con frases en secuencia. La primera habla de que existe variedad, luego se dice que se da aislamiento reproductivo, luego que se empiezan a diferenciar genéticamente las poblaciones, luego que las diferencias son tales que ya no se pueden cruzar entre sí. Se pueden meter más frases en medio, mientras no generen ambigüedades con respecto al orden en que van.</t>
   </si>
   <si>
-    <t>Se unen frases como deriva genética, aislamiento geográfico, o divergencia genética, con sus respectivas explicaciones.</t>
-  </si>
-  <si>
     <t>Conoce cómo se forma una especie</t>
   </si>
   <si>
@@ -581,9 +575,6 @@
     <t>Preguntas de análisis relacionadas con la especiación</t>
   </si>
   <si>
-    <t>Fenómenos relacionados con la formación de especies</t>
-  </si>
-  <si>
     <t>La diversificación de la vida: entre la especiación y la extinción</t>
   </si>
   <si>
@@ -620,9 +611,6 @@
     <t>La generación espontánea, la panspermia y los coacervados</t>
   </si>
   <si>
-    <t>Actividad para reconocer las carácterísticas de la hipótesis de la generación espontánea</t>
-  </si>
-  <si>
     <t>Actividad para diferenciar y clasificar las características de las hipótesis del origen de la vida</t>
   </si>
   <si>
@@ -644,9 +632,6 @@
     <t>Interactivo que permite comprender los aspectos fundamentales de la evolución por selección natural</t>
   </si>
   <si>
-    <t xml:space="preserve">Interactivo para reconocer la </t>
-  </si>
-  <si>
     <t>Actividad para comparar y diferenciar las propuestas del fijismo y el catastrofismo</t>
   </si>
   <si>
@@ -674,9 +659,6 @@
     <t>Dos imágenes principales para para mostar en el menú, que tratará sobre el mecanismo de especiación. La primera opción habla de aislamiento reproductivo, y la segunda de divergencia genética. En aislamiento hay varias imágenes, y en la primera se explica qué es y que implica el aislamiento reproducitvo (las nuevas características no se comparten). En las demás se presentan diferentes tipos (geográfico, ecológico, temporal, por incompatibilidad de gametos, etc.). En cuanto a la divergencia, hay una imágen que lleva a la explicación de qué es, y se explica que se parte de que hay diversidad en las poblaciones naturales (por mutaciones y recombinación genética). En las dos siguientes imágenes tratan sobre el por qué se da la divergencia genética: por selección natural y por deriva genética (cada una es una imagen de menú, con sus respectivas explicaciones).</t>
   </si>
   <si>
-    <t>Actividad para reconocer el significado de diversas expresiones relacionadas con la especiación</t>
-  </si>
-  <si>
     <t>Interactivo que permite identificar las condiciones necesarias para la especiación</t>
   </si>
   <si>
@@ -695,9 +677,6 @@
     <t>Interactivo que permite comprender la relación entre la especiación y la extinción, responsable de la diversificación biológica</t>
   </si>
   <si>
-    <t>Actividad para distingir diversos aspectos de la formación de especies</t>
-  </si>
-  <si>
     <t>Actividad que permite comprobar los aspectos fundamentales del mecanismo de la selección natural</t>
   </si>
   <si>
@@ -719,9 +698,6 @@
     <t>Recurso M12A-01</t>
   </si>
   <si>
-    <t>Recurso M1B-01</t>
-  </si>
-  <si>
     <t>Recurso M101A-04</t>
   </si>
   <si>
@@ -783,6 +759,27 @@
   </si>
   <si>
     <t>Actividad para comparar los planteamientos de Darwin y de Lamarck</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer las características de la hipótesis de la generación espontánea</t>
+  </si>
+  <si>
+    <t>Interactivo con animación para explicar la teoría de la selección natural que propuso Darwin tras su viaje en el HMS Beagle</t>
+  </si>
+  <si>
+    <t>La teoría sintética de la evolución biológica</t>
+  </si>
+  <si>
+    <t>Actividad para distinguir diversos aspectos de la formación de especies</t>
+  </si>
+  <si>
+    <t>La especiación y la extinción</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer y diferenciar las características de la especiación y la extinción</t>
+  </si>
+  <si>
+    <t>Recurso M4A-02</t>
   </si>
 </sst>
 </file>
@@ -1006,16 +1003,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1055,24 +1070,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,9 +1378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,94 +1408,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="22" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="31" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="31" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="38"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="23" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="47"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="32"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1547,16 +1544,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1586,7 +1583,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>19</v>
@@ -1601,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="R4" s="20" t="s">
         <v>131</v>
@@ -1610,10 +1607,10 @@
         <v>150</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1658,7 +1655,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="R5" s="11" t="s">
         <v>131</v>
@@ -1667,10 +1664,10 @@
         <v>150</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1691,7 +1688,7 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1700,7 +1697,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1713,7 +1710,7 @@
         <v>43</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -1728,7 +1725,7 @@
         <v>127</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="U6" s="10" t="s">
         <v>129</v>
@@ -1761,7 +1758,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1811,7 +1808,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -1820,7 +1817,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1842,16 +1839,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1883,7 +1880,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -1898,7 +1895,7 @@
         <v>19</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="R9" s="11" t="s">
         <v>131</v>
@@ -1907,10 +1904,10 @@
         <v>150</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1942,7 +1939,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -1964,16 +1961,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2005,7 +2002,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2020,7 +2017,7 @@
         <v>19</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>131</v>
@@ -2032,7 +2029,7 @@
         <v>155</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2064,7 +2061,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2079,7 +2076,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>131</v>
@@ -2088,10 +2085,10 @@
         <v>150</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2121,7 +2118,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2134,7 +2131,7 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>19</v>
@@ -2143,16 +2140,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2182,7 +2179,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2210,7 +2207,7 @@
         <v>127</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>129</v>
@@ -2243,7 +2240,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2256,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>19</v>
@@ -2271,7 +2268,7 @@
         <v>127</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>129</v>
@@ -2293,7 +2290,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="H16" s="9">
         <v>14</v>
@@ -2302,7 +2299,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2324,16 +2321,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2361,7 +2358,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2389,7 +2386,7 @@
         <v>127</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>129</v>
@@ -2422,7 +2419,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2435,7 +2432,7 @@
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
@@ -2444,16 +2441,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="T18" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>241</v>
-      </c>
       <c r="U18" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2485,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2537,7 +2534,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
@@ -2546,7 +2543,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2559,7 +2556,7 @@
         <v>120</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>20</v>
@@ -2574,7 +2571,7 @@
         <v>127</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>129</v>
@@ -2598,7 +2595,7 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
@@ -2607,7 +2604,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2635,7 +2632,7 @@
         <v>127</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>129</v>
@@ -2652,12 +2649,12 @@
         <v>133</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
@@ -2666,7 +2663,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2679,7 +2676,7 @@
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2688,16 +2685,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S22" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="T22" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="T22" s="12" t="s">
-        <v>242</v>
-      </c>
       <c r="U22" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2711,12 +2708,12 @@
         <v>133</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -2725,7 +2722,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2738,7 +2735,7 @@
         <v>45</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>19</v>
@@ -2753,7 +2750,7 @@
         <v>127</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>129</v>
@@ -2770,12 +2767,12 @@
         <v>133</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -2784,38 +2781,34 @@
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="8"/>
-      <c r="N24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="9"/>
       <c r="P24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2829,50 +2822,54 @@
         <v>133</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
       </c>
       <c r="I25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="P25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>244</v>
+      <c r="Q25" s="10">
+        <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2886,37 +2883,35 @@
         <v>133</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9" t="s">
-        <v>187</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="9"/>
       <c r="P26" s="9" t="s">
         <v>19</v>
       </c>
@@ -2924,16 +2919,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2952,7 +2947,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
@@ -2961,7 +2956,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -2974,7 +2969,7 @@
         <v>52</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>19</v>
@@ -2989,7 +2984,7 @@
         <v>127</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="U27" s="10" t="s">
         <v>129</v>
@@ -3011,7 +3006,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3020,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -3030,14 +3025,14 @@
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="R28" s="11" t="s">
         <v>131</v>
@@ -3046,10 +3041,10 @@
         <v>150</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3068,7 +3063,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H29" s="9">
         <v>27</v>
@@ -3077,7 +3072,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
@@ -3087,14 +3082,14 @@
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="R29" s="11" t="s">
         <v>131</v>
@@ -3103,10 +3098,10 @@
         <v>150</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4807,12 +4802,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4827,6 +4816,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4849,7 +4844,7 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P83 I3:I83 K3:K83</xm:sqref>
+          <xm:sqref>K3:K83 I3:I83 P3:P83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/fuentes/contenidos/grado09/guion03/Escaleta_CN_09_03_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion03/Escaleta_CN_09_03_CO.xlsx
@@ -1003,34 +1003,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,6 +1052,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1376,11 +1376,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U297"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,96 +1409,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="22" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="29" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="44"/>
+    <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="23" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="32"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="47"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -2756,7 +2757,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -3149,7 +3150,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -4799,9 +4800,25 @@
     <row r="297" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U32">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="SI"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4816,12 +4833,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado09/guion03/Escaleta_CN_09_03_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion03/Escaleta_CN_09_03_CO.xlsx
@@ -458,18 +458,12 @@
     <t>Animación para reconocer la importancia del experimento de Miller y Urey en la comprensión del origen de la vida</t>
   </si>
   <si>
-    <t>Interactivo para conocer las tres hipótesis naturales más famosas sobre el origen de la vida</t>
-  </si>
-  <si>
     <t>Hacer tres opciones en el menú, generación espontánea, panspermia, coacervados. Explicar cada hipótesis, sus problemas y su estatus actual: en generación espontánea al final escribir que fue refutada por los experiemntos de Redi y Pasteur. En panspermia aclarar que no explica cómo se origina la vida y le falta evidencia. En coacervados decir que es la hiptesis aceptada actualmente, y que la evidencia la apoya. Mencionar el experiemnto de Miller y Urey diciendo que demostraron que las molécula sorgánicas puede resultar naturalmente de las inorgánicas (no profundizar, en un video se explica más).</t>
   </si>
   <si>
     <t>La hipótesis de la generación espontánea</t>
   </si>
   <si>
-    <t>El modelo de los coacervados</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: El origen de la vida</t>
   </si>
   <si>
@@ -512,18 +506,9 @@
     <t>El equilibrio puntuado</t>
   </si>
   <si>
-    <t>La teoría neutralista y el equilibrio puntuado</t>
-  </si>
-  <si>
-    <t>Explicar la teoría sintética de la evolución, apoyándose en la genética. Aclarar que también se le llama Neodarwinismo. Partir del supuesto de que los estudiantes ya estudiaron genética, aunque se pueden hacer recordatorios cuando sen considere pertinente. Usar genética más o menos básica, no cosas muy avanzadas. Decir que esta teoría incluyo el gradualismo como premisa, y explicar qué es eso (ver comentario en el recurso de equilibrio puntuado). Si se quiere, se puede ver el recurso en 4° ESO/Biología y geología/La evolución biológica/El neodarwinismo, el gradualismo y el equilibrio puntuado, pero no hacerlo tan superficial, ni dejar imágenes sin pie de foto. Se pueden tomar ideas o imágenes.</t>
-  </si>
-  <si>
     <t>El recurso muestra planteamientos darwinistas, y los relaciona con las explicaciones neodarwinistas respectivas. Por ejemplo el darwinismo dice que las características se heredan, y el neordarwinismo explica que las carácterísticas están en el ADN, el cual se trasmite a la descendencia debido a la trasmisión de cromosomas durante la división celular.</t>
   </si>
   <si>
-    <t>La relación entre el darwinismo y el neodarwinsmo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hacer preguntas sobre lo que es cada una, y sobre lo que NO es (por ejemplo, dar como opción de respuesta incorrecta la idea de que la teoría neutralista niega la existencia de la selección natural. También se puede preguntar abiertamente por esos asuntos. </t>
   </si>
   <si>
@@ -602,18 +587,9 @@
     <t>Hacer preguntas de análisis sobre las pruebas de la evolución</t>
   </si>
   <si>
-    <t>Explicar las pruebas paleontológicas, anatómicas, embriológicas, biogeográficcas y moleculares.</t>
-  </si>
-  <si>
     <t>Tres contenedores: generación espontánea, panspermia y coacervados. Se escriben frases que correspondan a los contenedores.</t>
   </si>
   <si>
-    <t>La generación espontánea, la panspermia y los coacervados</t>
-  </si>
-  <si>
-    <t>Actividad para diferenciar y clasificar las características de las hipótesis del origen de la vida</t>
-  </si>
-  <si>
     <t>Actividad para analizar las hipótesis del origen de la vida</t>
   </si>
   <si>
@@ -780,6 +756,30 @@
   </si>
   <si>
     <t>Recurso M4A-02</t>
+  </si>
+  <si>
+    <t>La abiogénesis</t>
+  </si>
+  <si>
+    <t>Interactivo para reconocer y diferenciar las tres hipótesis naturales más famosas sobre el origen de la vida</t>
+  </si>
+  <si>
+    <t>La generación espontánea, la panspermia y la abiogénesis</t>
+  </si>
+  <si>
+    <t>Explicar las pruebas paleontológicas, anatómicas, embriológicas, biogeográficas y moleculares.</t>
+  </si>
+  <si>
+    <t>Explicar la teoría sintética de la evolución, apoyándose en la genética. Aclarar que también se le llama Neodarwinismo. Partir del supuesto de que los estudiantes ya estudiaron genética, aunque se pueden hacer recordatorios cuando se considere pertinente. Usar genética más o menos básica, no cosas muy avanzadas. Decir que esta teoría incluyo el gradualismo como premisa, y explicar qué es eso (ver comentario en el recurso de equilibrio puntuado). Si se quiere, se puede ver el recurso en 4° ESO/Biología y geología/La evolución biológica/El neodarwinismo, el gradualismo y el equilibrio puntuado, pero no hacerlo tan superficial, ni dejar imágenes sin pie de foto. Se pueden tomar ideas o imágenes.</t>
+  </si>
+  <si>
+    <t>Actividad para diferenciar y clasificar las características de las hipótesis acerca del origen de la vida</t>
+  </si>
+  <si>
+    <t>La relación entre el darwinismo y el neodarwinismo</t>
+  </si>
+  <si>
+    <t>El neutralismo y el equilibrio puntuado</t>
   </si>
 </sst>
 </file>
@@ -1376,12 +1376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1470,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="34"/>
       <c r="C2" s="45"/>
@@ -1498,7 +1497,7 @@
       <c r="T2" s="49"/>
       <c r="U2" s="47"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>20</v>
@@ -1536,7 +1535,7 @@
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>19</v>
@@ -1545,19 +1544,19 @@
         <v>6</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1571,11 +1570,11 @@
         <v>139</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -1584,7 +1583,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>19</v>
@@ -1599,22 +1598,22 @@
         <v>19</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="R4" s="20" t="s">
         <v>131</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>139</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="16" t="s">
@@ -1656,22 +1655,22 @@
         <v>19</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="R5" s="11" t="s">
         <v>131</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1685,11 +1684,11 @@
         <v>139</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1698,7 +1697,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1711,7 +1710,7 @@
         <v>43</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -1726,13 +1725,13 @@
         <v>127</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="U6" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1750,7 +1749,7 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H7" s="9">
         <v>5</v>
@@ -1759,7 +1758,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1772,7 +1771,7 @@
         <v>52</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>19</v>
@@ -1804,12 +1803,12 @@
         <v>133</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -1818,7 +1817,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1831,7 +1830,7 @@
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>19</v>
@@ -1840,19 +1839,19 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1863,16 +1862,16 @@
         <v>133</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="G9" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H9" s="9">
         <v>7</v>
@@ -1881,7 +1880,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -1896,19 +1895,19 @@
         <v>19</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="R9" s="11" t="s">
         <v>131</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1922,13 +1921,13 @@
         <v>133</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>141</v>
@@ -1940,7 +1939,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -1953,7 +1952,7 @@
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>19</v>
@@ -1962,19 +1961,19 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1985,16 +1984,16 @@
         <v>133</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>155</v>
-      </c>
       <c r="G11" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H11" s="9">
         <v>9</v>
@@ -2003,7 +2002,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2018,22 +2017,22 @@
         <v>19</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>131</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -2044,16 +2043,16 @@
         <v>133</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="H12" s="9">
         <v>10</v>
@@ -2062,7 +2061,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2077,19 +2076,19 @@
         <v>19</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>131</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2103,14 +2102,14 @@
         <v>133</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H13" s="9">
         <v>11</v>
@@ -2119,7 +2118,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2132,7 +2131,7 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="9" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>19</v>
@@ -2141,19 +2140,19 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -2164,14 +2163,14 @@
         <v>133</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H14" s="9">
         <v>12</v>
@@ -2180,7 +2179,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2193,7 +2192,7 @@
         <v>52</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>19</v>
@@ -2208,13 +2207,13 @@
         <v>127</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2225,14 +2224,14 @@
         <v>133</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H15" s="9">
         <v>13</v>
@@ -2241,7 +2240,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2254,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>19</v>
@@ -2269,7 +2268,7 @@
         <v>127</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>129</v>
@@ -2286,12 +2285,12 @@
         <v>133</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H16" s="9">
         <v>14</v>
@@ -2300,7 +2299,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2313,7 +2312,7 @@
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>19</v>
@@ -2322,19 +2321,19 @@
         <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -2345,12 +2344,12 @@
         <v>133</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="H17" s="9">
         <v>15</v>
@@ -2359,7 +2358,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2372,7 +2371,7 @@
         <v>24</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>19</v>
@@ -2387,7 +2386,7 @@
         <v>127</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>129</v>
@@ -2404,14 +2403,14 @@
         <v>133</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H18" s="9">
         <v>16</v>
@@ -2420,7 +2419,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2433,7 +2432,7 @@
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
@@ -2442,19 +2441,19 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="T18" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>233</v>
-      </c>
       <c r="U18" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2465,16 +2464,16 @@
         <v>133</v>
       </c>
       <c r="D19" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>160</v>
-      </c>
       <c r="F19" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="H19" s="9">
         <v>17</v>
@@ -2483,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2496,7 +2495,7 @@
         <v>32</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>19</v>
@@ -2517,7 +2516,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2528,14 +2527,14 @@
         <v>133</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
@@ -2544,7 +2543,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2557,7 +2556,7 @@
         <v>120</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>20</v>
@@ -2572,13 +2571,13 @@
         <v>127</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -2589,14 +2588,14 @@
         <v>133</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
@@ -2605,7 +2604,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2618,7 +2617,7 @@
         <v>52</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2633,7 +2632,7 @@
         <v>127</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>129</v>
@@ -2650,12 +2649,12 @@
         <v>133</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
@@ -2664,7 +2663,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2677,7 +2676,7 @@
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2686,19 +2685,19 @@
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="S22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="T22" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="T22" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="U22" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -2709,12 +2708,12 @@
         <v>133</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -2723,7 +2722,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2736,7 +2735,7 @@
         <v>45</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>19</v>
@@ -2751,13 +2750,13 @@
         <v>127</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -2768,12 +2767,12 @@
         <v>133</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -2782,7 +2781,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
@@ -2797,19 +2796,19 @@
         <v>20</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>131</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2823,14 +2822,14 @@
         <v>133</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -2839,7 +2838,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -2852,7 +2851,7 @@
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
@@ -2861,19 +2860,19 @@
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -2884,14 +2883,14 @@
         <v>133</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -2900,7 +2899,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -2926,13 +2925,13 @@
         <v>127</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2948,7 +2947,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
@@ -2957,7 +2956,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -2970,7 +2969,7 @@
         <v>52</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>19</v>
@@ -2985,13 +2984,13 @@
         <v>127</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="U27" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -3007,7 +3006,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3016,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -3026,29 +3025,29 @@
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="R28" s="11" t="s">
         <v>131</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -3064,7 +3063,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H29" s="9">
         <v>27</v>
@@ -3073,7 +3072,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
@@ -3083,29 +3082,29 @@
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="R29" s="11" t="s">
         <v>131</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -3150,7 +3149,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -4800,16 +4799,6 @@
     <row r="297" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U32">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="SI"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">

--- a/fuentes/contenidos/grado09/guion03/Escaleta_CN_09_03_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion03/Escaleta_CN_09_03_CO.xlsx
@@ -506,12 +506,6 @@
     <t>El equilibrio puntuado</t>
   </si>
   <si>
-    <t>El recurso muestra planteamientos darwinistas, y los relaciona con las explicaciones neodarwinistas respectivas. Por ejemplo el darwinismo dice que las características se heredan, y el neordarwinismo explica que las carácterísticas están en el ADN, el cual se trasmite a la descendencia debido a la trasmisión de cromosomas durante la división celular.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hacer preguntas sobre lo que es cada una, y sobre lo que NO es (por ejemplo, dar como opción de respuesta incorrecta la idea de que la teoría neutralista niega la existencia de la selección natural. También se puede preguntar abiertamente por esos asuntos. </t>
-  </si>
-  <si>
     <t>Hacer preguntas de análisis sobre las tres ideas mostradas sorbe el origen de la vida.</t>
   </si>
   <si>
@@ -554,9 +548,6 @@
     <t>Conoce cómo se forma una especie</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: La especiación</t>
-  </si>
-  <si>
     <t>Preguntas de análisis relacionadas con la especiación</t>
   </si>
   <si>
@@ -623,9 +614,6 @@
     <t>Actividad que permite relacionar los postulados del darwinismo y el neodarwinismo</t>
   </si>
   <si>
-    <t>Actividad para identificar las características del equilibrio puntuado y la teoría neutralista</t>
-  </si>
-  <si>
     <t>Actividad para recordar y afianzar los conocimientos acerca de las teorías evolutivas actuales</t>
   </si>
   <si>
@@ -780,6 +768,18 @@
   </si>
   <si>
     <t>El neutralismo y el equilibrio puntuado</t>
+  </si>
+  <si>
+    <t>El recurso muestra planteamientos darwinistas, y los relaciona con las explicaciones neodarwinistas respectivas. Por ejemplo el darwinismo dice que las características se heredan, y el neordarwinismo explica que las carácterísticas están en el ADN, el cual se trasmite a la descendencia debido a la transmisión de cromosomas durante la división celular.</t>
+  </si>
+  <si>
+    <t>Actividad para identificar las características del equilibrio puntuado y el neutralismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer preguntas sobre lo que es cada una, y sobre lo que NO es (por ejemplo, dar como opción de respuesta incorrecta la idea de que la teoría neutralista niega la existencia de la selección natural). También se puede preguntar abiertamente por esos asuntos. </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La biodiversidad, la especiación y la extinción</t>
   </si>
 </sst>
 </file>
@@ -1003,16 +1003,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,24 +1070,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1379,8 +1379,8 @@
   <dimension ref="A1:U297"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,94 +1408,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="22" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="31" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="31" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="38"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="23" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="47"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="32"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1522,7 +1522,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>20</v>
@@ -1544,16 +1544,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>19</v>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R4" s="20" t="s">
         <v>131</v>
@@ -1607,10 +1607,10 @@
         <v>148</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>139</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="16" t="s">
@@ -1655,7 +1655,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R5" s="11" t="s">
         <v>131</v>
@@ -1664,10 +1664,10 @@
         <v>148</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1684,11 +1684,11 @@
         <v>139</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1697,7 +1697,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1710,7 +1710,7 @@
         <v>43</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -1725,7 +1725,7 @@
         <v>127</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="U6" s="10" t="s">
         <v>129</v>
@@ -1758,7 +1758,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1771,7 +1771,7 @@
         <v>52</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>19</v>
@@ -1808,7 +1808,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -1817,7 +1817,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>19</v>
@@ -1839,16 +1839,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T8" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="S8" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>221</v>
-      </c>
       <c r="U8" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -1895,7 +1895,7 @@
         <v>19</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R9" s="11" t="s">
         <v>131</v>
@@ -1904,10 +1904,10 @@
         <v>148</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1939,7 +1939,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>19</v>
@@ -1961,16 +1961,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="S10" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T10" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>222</v>
-      </c>
       <c r="U10" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2017,7 +2017,7 @@
         <v>19</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>131</v>
@@ -2029,7 +2029,7 @@
         <v>153</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2061,7 +2061,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2076,7 +2076,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>131</v>
@@ -2085,10 +2085,10 @@
         <v>148</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2105,11 +2105,11 @@
         <v>148</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H13" s="9">
         <v>11</v>
@@ -2118,7 +2118,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>19</v>
@@ -2140,16 +2140,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H14" s="9">
         <v>12</v>
@@ -2179,7 +2179,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2192,7 +2192,7 @@
         <v>52</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>19</v>
@@ -2207,7 +2207,7 @@
         <v>127</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>129</v>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H15" s="9">
         <v>13</v>
@@ -2240,7 +2240,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2253,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>19</v>
@@ -2268,7 +2268,7 @@
         <v>127</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>129</v>
@@ -2290,7 +2290,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H16" s="9">
         <v>14</v>
@@ -2299,7 +2299,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>19</v>
@@ -2321,16 +2321,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2349,7 +2349,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H17" s="9">
         <v>15</v>
@@ -2358,7 +2358,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2371,7 +2371,7 @@
         <v>24</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>19</v>
@@ -2386,7 +2386,7 @@
         <v>127</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>129</v>
@@ -2419,7 +2419,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
@@ -2441,16 +2441,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2473,7 +2473,7 @@
         <v>159</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H19" s="9">
         <v>17</v>
@@ -2482,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2495,7 +2495,7 @@
         <v>32</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>19</v>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
@@ -2543,7 +2543,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2556,7 +2556,7 @@
         <v>120</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>20</v>
@@ -2571,7 +2571,7 @@
         <v>127</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>129</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
@@ -2604,7 +2604,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2617,7 +2617,7 @@
         <v>52</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2632,7 +2632,7 @@
         <v>127</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>129</v>
@@ -2649,12 +2649,12 @@
         <v>133</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
@@ -2663,7 +2663,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2685,16 +2685,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2708,12 +2708,12 @@
         <v>133</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -2722,7 +2722,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2735,7 +2735,7 @@
         <v>45</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>19</v>
@@ -2750,7 +2750,7 @@
         <v>127</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>129</v>
@@ -2767,12 +2767,12 @@
         <v>133</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -2781,7 +2781,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
@@ -2796,7 +2796,7 @@
         <v>20</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>131</v>
@@ -2805,10 +2805,10 @@
         <v>148</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2822,14 +2822,14 @@
         <v>133</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -2838,7 +2838,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
@@ -2860,16 +2860,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2883,14 +2883,14 @@
         <v>133</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -2899,7 +2899,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -2925,7 +2925,7 @@
         <v>127</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>129</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
@@ -2956,7 +2956,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -2969,7 +2969,7 @@
         <v>52</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>19</v>
@@ -2984,7 +2984,7 @@
         <v>127</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="U27" s="10" t="s">
         <v>129</v>
@@ -3006,7 +3006,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3015,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -3025,14 +3025,14 @@
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R28" s="11" t="s">
         <v>131</v>
@@ -3041,10 +3041,10 @@
         <v>148</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3063,7 +3063,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H29" s="9">
         <v>27</v>
@@ -3072,7 +3072,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
@@ -3082,14 +3082,14 @@
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R29" s="11" t="s">
         <v>131</v>
@@ -3098,10 +3098,10 @@
         <v>148</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4802,12 +4802,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4822,6 +4816,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado09/guion03/Escaleta_CN_09_03_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion03/Escaleta_CN_09_03_CO.xlsx
@@ -1003,34 +1003,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,6 +1052,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1378,9 +1378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,94 +1408,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="22" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="29" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="46" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="44"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="23" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="47"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4802,6 +4802,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4816,12 +4822,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
